--- a/artfynd/A 44206-2021.xlsx
+++ b/artfynd/A 44206-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98156145</v>
+        <v>98155950</v>
       </c>
       <c r="B2" t="n">
         <v>96334</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -728,14 +728,14 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Lerbo Berg 2, Srm</t>
+          <t>Lerbo Berg NV 1, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>584386.4101965474</v>
+        <v>584257.0846869629</v>
       </c>
       <c r="R2" t="n">
-        <v>6538141.304018256</v>
+        <v>6538290.088085855</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Två lokaler med 9 meters mellanrum, med 6 respektive ca 85 bladrosetter.</t>
+          <t>Tre smålokaler med 3-4 meters mellanrum. Med 5, 10 och 16 bladrosetter.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -810,7 +810,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98158007</v>
+        <v>98158490</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -858,14 +858,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Lerbo Berg 7, Srm</t>
+          <t>Lerbo Berg 11, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>584339.5836724243</v>
+        <v>584233.0033394973</v>
       </c>
       <c r="R3" t="n">
-        <v>6538085.608313028</v>
+        <v>6538304.515716649</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,11 +908,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Fyra lokaler med 11 + 2 + 20 + 2 bladrosetter, 4-9 meter mellan lokalerna.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -940,7 +935,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98158382</v>
+        <v>98158571</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -975,7 +970,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -988,14 +983,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Lerbo Berg 8, Srm</t>
+          <t>Lerbo Berg 12, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>584322.5081399854</v>
+        <v>584230.5151383405</v>
       </c>
       <c r="R4" t="n">
-        <v>6538086.780837334</v>
+        <v>6538276.612874148</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1038,6 +1033,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Tre lokaler med 4-9 meters mellanrum. Med 38, 12 och 5 bladrosetter.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1065,10 +1065,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98157785</v>
+        <v>99035434</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>89412</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1077,53 +1077,51 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lerbo Berg 6, Srm</t>
+          <t>Katrineholm, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>584349.2217702151</v>
+        <v>584259.9526648163</v>
       </c>
       <c r="R5" t="n">
-        <v>6538117.279694059</v>
+        <v>6538253.535413696</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1147,27 +1145,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Två lokaler med 5-9 meters mellanrum. Med 5 och 11 bladrosetter.</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1176,26 +1169,25 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98155950</v>
+        <v>99035198</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1230,7 +1222,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1240,20 +1232,19 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lerbo Berg NV 1, Srm</t>
+          <t>Katrineholm, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>584257.0846869629</v>
+        <v>584259.9526648163</v>
       </c>
       <c r="R6" t="n">
-        <v>6538290.088085855</v>
+        <v>6538253.535413696</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1277,27 +1268,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Tre smålokaler med 3-4 meters mellanrum. Med 5, 10 och 16 bladrosetter.</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1306,29 +1292,28 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98156284</v>
+        <v>106563242</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>4717</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1337,53 +1322,54 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lerbo Berg 4, Srm</t>
+          <t>Berg Lerbo granbarkgnagare 350 m s, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>584370.8007180344</v>
+        <v>584253.8768374666</v>
       </c>
       <c r="R7" t="n">
-        <v>6538169.842088223</v>
+        <v>6538271.452165138</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1407,7 +1393,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1417,7 +1403,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1427,7 +1413,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>En lokal på några kvadratmeter med 12 rosetter.</t>
+          <t>i några granar</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1440,25 +1426,35 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98158635</v>
+        <v>106563215</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>90653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1467,50 +1463,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Lerbo berg 10, Srm</t>
+          <t>Berg Lerbo, blåmossa 360 m s, Srm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>584348.230930091</v>
+        <v>584292.786769349</v>
       </c>
       <c r="R8" t="n">
-        <v>6538068.262973726</v>
+        <v>6538264.054031932</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1537,7 +1524,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1547,17 +1534,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ca 10 meter NV om parkeringsficka.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1570,25 +1552,35 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98156204</v>
+        <v>106563508</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>90676</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1597,53 +1589,52 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Lerbo Berg 3, Srm</t>
+          <t>Berg Lerbo, motaggsvamp 370 m s, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>584366.5604923052</v>
+        <v>584277.1142557467</v>
       </c>
       <c r="R9" t="n">
-        <v>6538151.182805483</v>
+        <v>6538271.961699993</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1667,7 +1658,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1677,7 +1668,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1687,7 +1678,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Tre lokaler med 9 meter mellan, med 6, 7 och 10 bladrosetter.</t>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1700,25 +1691,35 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98158490</v>
+        <v>106563513</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>93375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1727,53 +1728,45 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Lerbo Berg 11, Srm</t>
+          <t>Berg Lerbo, motaggsvamp 370 m s, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>584233.0033394973</v>
+        <v>584277.1142557467</v>
       </c>
       <c r="R10" t="n">
-        <v>6538304.515716649</v>
+        <v>6538271.961699993</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1797,7 +1790,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1807,7 +1800,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1825,25 +1818,35 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98158571</v>
+        <v>106563118</v>
       </c>
       <c r="B11" t="n">
-        <v>96334</v>
+        <v>93375</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1852,50 +1855,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Lerbo Berg 12, Srm</t>
+          <t>Berg Lerbo, blåmossa 360 m s, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>584230.5151383405</v>
+        <v>584292.786769349</v>
       </c>
       <c r="R11" t="n">
-        <v>6538276.612874148</v>
+        <v>6538264.054031932</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1922,7 +1917,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1932,7 +1927,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1942,7 +1937,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Tre lokaler med 4-9 meters mellanrum. Med 38, 12 och 5 bladrosetter.</t>
+          <t>på flera ställen</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1955,25 +1950,35 @@
       <c r="AG11" t="b">
         <v>0</v>
       </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99035434</v>
+        <v>106562883</v>
       </c>
       <c r="B12" t="n">
-        <v>89412</v>
+        <v>89789</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1982,25 +1987,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5442</v>
+        <v>5420</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2014,19 +2019,20 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Katrineholm, Srm</t>
+          <t>Berg Lerbo, 320 m s, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>584259.9526648163</v>
+        <v>584230.342339717</v>
       </c>
       <c r="R12" t="n">
-        <v>6538253.535413696</v>
+        <v>6538308.067341365</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2050,22 +2056,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2074,28 +2085,39 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99035745</v>
+        <v>106642991</v>
       </c>
       <c r="B13" t="n">
-        <v>95525</v>
+        <v>96334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2104,52 +2126,61 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221941</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Sund Katrineborg, Katrineholm, Srm</t>
+          <t>Berg Lerbo, knärot 350 m sso, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>584329.8318954482</v>
+        <v>584231.8416649629</v>
       </c>
       <c r="R13" t="n">
-        <v>6538129.747484392</v>
+        <v>6538263.233435098</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2171,24 +2202,34 @@
           <t>Lerbo</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D-Kat-0609</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>fördelade på ca 8 dellokaler spridda i området, Området är anmält för avverkning</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2197,25 +2238,40 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Bo Karlsson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99035198</v>
+        <v>98156145</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2250,7 +2306,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2260,19 +2316,20 @@
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Katrineholm, Srm</t>
+          <t>Lerbo Berg 2, Srm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>584259.9526648163</v>
+        <v>584386.4101965474</v>
       </c>
       <c r="R14" t="n">
-        <v>6538253.535413696</v>
+        <v>6538141.304018256</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2296,22 +2353,27 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Två lokaler med 9 meters mellanrum, med 6 respektive ca 85 bladrosetter.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2320,28 +2382,29 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99110942</v>
+        <v>98158007</v>
       </c>
       <c r="B15" t="n">
-        <v>103265</v>
+        <v>96334</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2350,30 +2413,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2383,19 +2446,20 @@
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sund Katrineborg, Katrineholm, Srm</t>
+          <t>Lerbo Berg 7, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>584359.6743956967</v>
+        <v>584339.5836724243</v>
       </c>
       <c r="R15" t="n">
-        <v>6538111.83605085</v>
+        <v>6538085.608313028</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2419,22 +2483,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Fyra lokaler med 11 + 2 + 20 + 2 bladrosetter, 4-9 meter mellan lokalerna.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2443,28 +2512,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106563242</v>
+        <v>98158382</v>
       </c>
       <c r="B16" t="n">
-        <v>4717</v>
+        <v>96334</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2473,54 +2543,53 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Berg Lerbo granbarkgnagare 350 m s, Srm</t>
+          <t>Lerbo Berg 8, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>584253.8768374666</v>
+        <v>584322.5081399854</v>
       </c>
       <c r="R16" t="n">
-        <v>6538271.452165138</v>
+        <v>6538086.780837334</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2544,7 +2613,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2554,17 +2623,12 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>i några granar</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2577,32 +2641,22 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106563795</v>
+        <v>98157785</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2637,38 +2691,30 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
+          <t>Lerbo Berg 6, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>584321.3056650457</v>
+        <v>584349.2217702151</v>
       </c>
       <c r="R17" t="n">
-        <v>6538094.490504271</v>
+        <v>6538117.279694059</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2692,7 +2738,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2702,12 +2748,17 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Två lokaler med 5-9 meters mellanrum. Med 5 och 11 bladrosetter.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2720,35 +2771,25 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106564025</v>
+        <v>98156284</v>
       </c>
       <c r="B18" t="n">
-        <v>103265</v>
+        <v>96334</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2757,30 +2798,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2788,30 +2829,22 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Berg Lerbo 420 m s, Srm</t>
+          <t>Lerbo Berg 4, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>584356.8886847812</v>
+        <v>584370.8007180344</v>
       </c>
       <c r="R18" t="n">
-        <v>6538121.058106194</v>
+        <v>6538169.842088223</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2835,7 +2868,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2845,12 +2878,17 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>En lokal på några kvadratmeter med 12 rosetter.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2863,35 +2901,25 @@
       <c r="AG18" t="b">
         <v>0</v>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106563712</v>
+        <v>98158635</v>
       </c>
       <c r="B19" t="n">
-        <v>90676</v>
+        <v>96334</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2900,52 +2928,53 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Berg Lerbo motaggsvamp 400 m s, Srm</t>
+          <t>Lerbo berg 10, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>584291.3690984178</v>
+        <v>584348.230930091</v>
       </c>
       <c r="R19" t="n">
-        <v>6538140.249761487</v>
+        <v>6538068.262973726</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2969,7 +2998,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2979,7 +3008,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2989,7 +3018,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>fjolårsex</t>
+          <t>Ca 10 meter NV om parkeringsficka.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3002,35 +3031,25 @@
       <c r="AG19" t="b">
         <v>0</v>
       </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106563772</v>
+        <v>98156204</v>
       </c>
       <c r="B20" t="n">
-        <v>89789</v>
+        <v>96334</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3039,52 +3058,53 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
+          <t>Lerbo Berg 3, Srm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>584321.3056650457</v>
+        <v>584366.5604923052</v>
       </c>
       <c r="R20" t="n">
-        <v>6538094.490504271</v>
+        <v>6538151.182805483</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3108,7 +3128,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3118,7 +3138,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3128,7 +3148,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>fjolårsex</t>
+          <t>Tre lokaler med 9 meter mellan, med 6, 7 och 10 bladrosetter.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3141,35 +3161,25 @@
       <c r="AG20" t="b">
         <v>0</v>
       </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106563629</v>
+        <v>99035745</v>
       </c>
       <c r="B21" t="n">
-        <v>89789</v>
+        <v>95525</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3182,40 +3192,48 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5420</v>
+        <v>221941</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Berg Lerbo, grovticka 425 m s, Srm</t>
+          <t>Sund Katrineborg, Katrineholm, Srm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>584354.2419458929</v>
+        <v>584329.8318954482</v>
       </c>
       <c r="R21" t="n">
-        <v>6538171.025772231</v>
+        <v>6538129.747484392</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3239,27 +3257,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>fjolårsex</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3268,39 +3281,28 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106563215</v>
+        <v>99110942</v>
       </c>
       <c r="B22" t="n">
-        <v>90653</v>
+        <v>103265</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3313,40 +3315,48 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>221144</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Berg Lerbo, blåmossa 360 m s, Srm</t>
+          <t>Sund Katrineborg, Katrineholm, Srm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>584292.786769349</v>
+        <v>584359.6743956967</v>
       </c>
       <c r="R22" t="n">
-        <v>6538264.054031932</v>
+        <v>6538111.83605085</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3370,22 +3380,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3394,39 +3404,28 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106563508</v>
+        <v>106563795</v>
       </c>
       <c r="B23" t="n">
-        <v>90676</v>
+        <v>96334</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3435,49 +3434,58 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Berg Lerbo, motaggsvamp 370 m s, Srm</t>
+          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>584277.1142557467</v>
+        <v>584321.3056650457</v>
       </c>
       <c r="R23" t="n">
-        <v>6538271.961699993</v>
+        <v>6538094.490504271</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3520,11 +3528,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3562,10 +3565,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>106563756</v>
+        <v>106564025</v>
       </c>
       <c r="B24" t="n">
-        <v>90653</v>
+        <v>103265</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3578,37 +3581,54 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>221144</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
+          <t>Berg Lerbo 420 m s, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>584321.3056650457</v>
+        <v>584356.8886847812</v>
       </c>
       <c r="R24" t="n">
-        <v>6538094.490504271</v>
+        <v>6538121.058106194</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3651,11 +3671,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3693,10 +3708,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>106563513</v>
+        <v>106563712</v>
       </c>
       <c r="B25" t="n">
-        <v>93375</v>
+        <v>90676</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3705,42 +3720,49 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2180</v>
+        <v>5966</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Berg Lerbo, motaggsvamp 370 m s, Srm</t>
+          <t>Berg Lerbo motaggsvamp 400 m s, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>584277.1142557467</v>
+        <v>584291.3690984178</v>
       </c>
       <c r="R25" t="n">
-        <v>6538271.961699993</v>
+        <v>6538140.249761487</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3783,6 +3805,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3820,10 +3847,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>106563983</v>
+        <v>106563772</v>
       </c>
       <c r="B26" t="n">
-        <v>90676</v>
+        <v>89789</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3832,30 +3859,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5966</v>
+        <v>5420</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3867,14 +3894,14 @@
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Berg Lerbo, motaggsvamp 430 m s, Srm</t>
+          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>584310.3630403695</v>
+        <v>584321.3056650457</v>
       </c>
       <c r="R26" t="n">
-        <v>6538075.168150426</v>
+        <v>6538094.490504271</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3959,10 +3986,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>106563118</v>
+        <v>106563629</v>
       </c>
       <c r="B27" t="n">
-        <v>93375</v>
+        <v>89789</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3975,38 +4002,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2180</v>
+        <v>5420</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Berg Lerbo, blåmossa 360 m s, Srm</t>
+          <t>Berg Lerbo, grovticka 425 m s, Srm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>584292.786769349</v>
+        <v>584354.2419458929</v>
       </c>
       <c r="R27" t="n">
-        <v>6538264.054031932</v>
+        <v>6538171.025772231</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4053,7 +4079,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>på flera ställen</t>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4091,10 +4117,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>106562883</v>
+        <v>106563756</v>
       </c>
       <c r="B28" t="n">
-        <v>89789</v>
+        <v>90653</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4107,45 +4133,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5420</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Berg Lerbo, 320 m s, Srm</t>
+          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>584230.342339717</v>
+        <v>584321.3056650457</v>
       </c>
       <c r="R28" t="n">
-        <v>6538308.067341365</v>
+        <v>6538094.490504271</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4230,10 +4248,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>106627405</v>
+        <v>106563983</v>
       </c>
       <c r="B29" t="n">
-        <v>95529</v>
+        <v>90676</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4242,45 +4260,52 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221940</v>
+        <v>5966</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mellanlummer</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lycopodium zeilleri</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Rouy) Greuter &amp; Burdet</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Berg, Lerbo, Biesta, Srm</t>
+          <t>Berg Lerbo, motaggsvamp 430 m s, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>584320.8419535003</v>
+        <v>584310.3630403695</v>
       </c>
       <c r="R29" t="n">
-        <v>6538115.625454261</v>
+        <v>6538075.168150426</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4304,7 +4329,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4314,12 +4339,17 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4332,22 +4362,32 @@
       <c r="AG29" t="b">
         <v>0</v>
       </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Daniel Franzén</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Daniel Franzén</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>106627978</v>
+        <v>106627405</v>
       </c>
       <c r="B30" t="n">
         <v>95529</v>
@@ -4380,36 +4420,24 @@
           <t>(Rouy) Greuter &amp; Burdet</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Lerbo Berg, 400 m SSO om, Srm</t>
+          <t>Berg, Lerbo, Biesta, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>584313.495338978</v>
+        <v>584320.8419535003</v>
       </c>
       <c r="R30" t="n">
-        <v>6538144.34522896</v>
+        <v>6538115.625454261</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4449,11 +4477,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Varav två skott tagna som belägg av Bo Karlsson. Tio skott med sporaxskaft med 3-6 sporax per skaft. Sporaxskaften utgår både från centralskottet och från sidogrenar. Smala ändgrenar, cirka 1,5 mm. Dorsalbladen nästan lika stora som lateralbladen i grenspetsarna, ventralbladen något kortare och smalare. Lateralbladens spetsar inböjda, med några få undantag. Jordskott 6-8 cm under yttre markskiktet. Hela beståndet inom ett begränsat område, som i övrigt endast hyser ett fåtal kärlväxter. Skogspartiet är anmält för avverkning.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4466,30 +4489,25 @@
       <c r="AG30" t="b">
         <v>0</v>
       </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>Mossig barrblandskog.</t>
-        </is>
-      </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Rolf Wahlström</t>
+          <t>Daniel Franzén</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Rolf Wahlström, Bo Karlsson</t>
+          <t>Daniel Franzén</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>106627216</v>
+        <v>106627978</v>
       </c>
       <c r="B31" t="n">
-        <v>96334</v>
+        <v>95529</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4502,41 +4520,53 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>221940</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mellanlummer</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium zeilleri</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+          <t>(Rouy) Greuter &amp; Burdet</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Berg, Lerbo, Biesta, Srm</t>
+          <t>Lerbo Berg, 400 m SSO om, Srm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>584320.8419535003</v>
+        <v>584313.495338978</v>
       </c>
       <c r="R31" t="n">
-        <v>6538115.625454261</v>
+        <v>6538144.34522896</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4580,7 +4610,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Knärot fanns på en handfull platser i naturskog om ett par hektar som ska avverkas enligt botanister som var på samma lokal vid observationen. Enligt dem hade Skogsstyrelsen avslagit avverkningsanmälan men efter överklagan hade miljödomstolen gett stöd för avverkning med motivation att det fanns ett reservat inom närheten (ca 1 km) med bla knärot så då var detta område ej bevarandevärd. Om detta stämmer är det ett horribelt arguments som visar att det finns stora brister i underlaget för beslutet. Tråkigt att inte ens de få spillror av naturskogselement som finns kvar (innehållande flertalet rödlistade arter) kan få juridiskt stöd för bevarande. I vilken situation ska då värdefulla skogar kunna bevaras överhuvudtaget?</t>
+          <t>Varav två skott tagna som belägg av Bo Karlsson. Tio skott med sporaxskaft med 3-6 sporax per skaft. Sporaxskaften utgår både från centralskottet och från sidogrenar. Smala ändgrenar, cirka 1,5 mm. Dorsalbladen nästan lika stora som lateralbladen i grenspetsarna, ventralbladen något kortare och smalare. Lateralbladens spetsar inböjda, med några få undantag. Jordskott 6-8 cm under yttre markskiktet. Hela beståndet inom ett begränsat område, som i övrigt endast hyser ett fåtal kärlväxter. Skogspartiet är anmält för avverkning.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4593,25 +4623,30 @@
       <c r="AG31" t="b">
         <v>0</v>
       </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Mossig barrblandskog.</t>
+        </is>
+      </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Daniel Franzén</t>
+          <t>Rolf Wahlström</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Daniel Franzén</t>
+          <t>Rolf Wahlström, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>106627332</v>
+        <v>106627216</v>
       </c>
       <c r="B32" t="n">
-        <v>90676</v>
+        <v>96334</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4620,30 +4655,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4699,6 +4735,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Knärot fanns på en handfull platser i naturskog om ett par hektar som ska avverkas enligt botanister som var på samma lokal vid observationen. Enligt dem hade Skogsstyrelsen avslagit avverkningsanmälan men efter överklagan hade miljödomstolen gett stöd för avverkning med motivation att det fanns ett reservat inom närheten (ca 1 km) med bla knärot så då var detta område ej bevarandevärd. Om detta stämmer är det ett horribelt arguments som visar att det finns stora brister i underlaget för beslutet. Tråkigt att inte ens de få spillror av naturskogselement som finns kvar (innehållande flertalet rödlistade arter) kan få juridiskt stöd för bevarande. I vilken situation ska då värdefulla skogar kunna bevaras överhuvudtaget?</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4717,17 +4758,17 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Daniel Franzén, Rolf Wahlström</t>
+          <t>Daniel Franzén</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>106642991</v>
+        <v>106627332</v>
       </c>
       <c r="B33" t="n">
-        <v>96334</v>
+        <v>90676</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4736,61 +4777,44 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Berg Lerbo, knärot 350 m sso, Srm</t>
+          <t>Berg, Lerbo, Biesta, Srm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>584231.8416649629</v>
+        <v>584320.8419535003</v>
       </c>
       <c r="R33" t="n">
-        <v>6538263.233435098</v>
+        <v>6538115.625454261</v>
       </c>
       <c r="S33" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4812,14 +4836,9 @@
           <t>Lerbo</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>D-Kat-0609</t>
-        </is>
-      </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4829,17 +4848,12 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>fördelade på ca 8 dellokaler spridda i området, Området är anmält för avverkning</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4852,32 +4866,18 @@
       <c r="AG33" t="b">
         <v>0</v>
       </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Daniel Franzén</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
-        </is>
-      </c>
-      <c r="AY33" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Daniel Franzén, Rolf Wahlström</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">

--- a/artfynd/A 44206-2021.xlsx
+++ b/artfynd/A 44206-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98155950</v>
+        <v>98156145</v>
       </c>
       <c r="B2" t="n">
         <v>96334</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -728,14 +728,14 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Lerbo Berg NV 1, Srm</t>
+          <t>Lerbo Berg 2, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>584257.0846869629</v>
+        <v>584386.4101965474</v>
       </c>
       <c r="R2" t="n">
-        <v>6538290.088085855</v>
+        <v>6538141.304018256</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Tre smålokaler med 3-4 meters mellanrum. Med 5, 10 och 16 bladrosetter.</t>
+          <t>Två lokaler med 9 meters mellanrum, med 6 respektive ca 85 bladrosetter.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -810,7 +810,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98158490</v>
+        <v>98158007</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -858,14 +858,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Lerbo Berg 11, Srm</t>
+          <t>Lerbo Berg 7, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>584233.0033394973</v>
+        <v>584339.5836724243</v>
       </c>
       <c r="R3" t="n">
-        <v>6538304.515716649</v>
+        <v>6538085.608313028</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,6 +908,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Fyra lokaler med 11 + 2 + 20 + 2 bladrosetter, 4-9 meter mellan lokalerna.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -935,7 +940,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98158571</v>
+        <v>98158382</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -970,7 +975,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -983,14 +988,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Lerbo Berg 12, Srm</t>
+          <t>Lerbo Berg 8, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>584230.5151383405</v>
+        <v>584322.5081399854</v>
       </c>
       <c r="R4" t="n">
-        <v>6538276.612874148</v>
+        <v>6538086.780837334</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1033,11 +1038,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Tre lokaler med 4-9 meters mellanrum. Med 38, 12 och 5 bladrosetter.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1065,10 +1065,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99035434</v>
+        <v>98157785</v>
       </c>
       <c r="B5" t="n">
-        <v>89412</v>
+        <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1077,51 +1077,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Katrineholm, Srm</t>
+          <t>Lerbo Berg 6, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>584259.9526648163</v>
+        <v>584349.2217702151</v>
       </c>
       <c r="R5" t="n">
-        <v>6538253.535413696</v>
+        <v>6538117.279694059</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1145,22 +1147,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Två lokaler med 5-9 meters mellanrum. Med 5 och 11 bladrosetter.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,25 +1176,26 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99035198</v>
+        <v>98155950</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1222,7 +1230,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1232,19 +1240,20 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Katrineholm, Srm</t>
+          <t>Lerbo Berg NV 1, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>584259.9526648163</v>
+        <v>584257.0846869629</v>
       </c>
       <c r="R6" t="n">
-        <v>6538253.535413696</v>
+        <v>6538290.088085855</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1268,22 +1277,27 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Tre smålokaler med 3-4 meters mellanrum. Med 5, 10 och 16 bladrosetter.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1292,28 +1306,29 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106563242</v>
+        <v>98156284</v>
       </c>
       <c r="B7" t="n">
-        <v>4717</v>
+        <v>96334</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1322,54 +1337,53 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Berg Lerbo granbarkgnagare 350 m s, Srm</t>
+          <t>Lerbo Berg 4, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>584253.8768374666</v>
+        <v>584370.8007180344</v>
       </c>
       <c r="R7" t="n">
-        <v>6538271.452165138</v>
+        <v>6538169.842088223</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1393,7 +1407,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1403,7 +1417,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1413,7 +1427,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>i några granar</t>
+          <t>En lokal på några kvadratmeter med 12 rosetter.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1426,35 +1440,25 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106563215</v>
+        <v>98158635</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1463,41 +1467,50 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Berg Lerbo, blåmossa 360 m s, Srm</t>
+          <t>Lerbo berg 10, Srm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>584292.786769349</v>
+        <v>584348.230930091</v>
       </c>
       <c r="R8" t="n">
-        <v>6538264.054031932</v>
+        <v>6538068.262973726</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1524,7 +1537,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1534,12 +1547,17 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ca 10 meter NV om parkeringsficka.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1552,35 +1570,25 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106563508</v>
+        <v>98156204</v>
       </c>
       <c r="B9" t="n">
-        <v>90676</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1589,52 +1597,53 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Berg Lerbo, motaggsvamp 370 m s, Srm</t>
+          <t>Lerbo Berg 3, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>584277.1142557467</v>
+        <v>584366.5604923052</v>
       </c>
       <c r="R9" t="n">
-        <v>6538271.961699993</v>
+        <v>6538151.182805483</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1658,7 +1667,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1668,7 +1677,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1678,7 +1687,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>fjolårsex</t>
+          <t>Tre lokaler med 9 meter mellan, med 6, 7 och 10 bladrosetter.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1691,35 +1700,25 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106563513</v>
+        <v>98158490</v>
       </c>
       <c r="B10" t="n">
-        <v>93375</v>
+        <v>96334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1728,45 +1727,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Berg Lerbo, motaggsvamp 370 m s, Srm</t>
+          <t>Lerbo Berg 11, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>584277.1142557467</v>
+        <v>584233.0033394973</v>
       </c>
       <c r="R10" t="n">
-        <v>6538271.961699993</v>
+        <v>6538304.515716649</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1790,7 +1797,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1800,7 +1807,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1818,35 +1825,25 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106563118</v>
+        <v>98158571</v>
       </c>
       <c r="B11" t="n">
-        <v>93375</v>
+        <v>96334</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1855,42 +1852,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2180</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Berg Lerbo, blåmossa 360 m s, Srm</t>
+          <t>Lerbo Berg 12, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>584292.786769349</v>
+        <v>584230.5151383405</v>
       </c>
       <c r="R11" t="n">
-        <v>6538264.054031932</v>
+        <v>6538276.612874148</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1917,7 +1922,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1927,7 +1932,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1937,7 +1942,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>på flera ställen</t>
+          <t>Tre lokaler med 4-9 meters mellanrum. Med 38, 12 och 5 bladrosetter.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1950,35 +1955,25 @@
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Monika Gustafsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106562883</v>
+        <v>99035434</v>
       </c>
       <c r="B12" t="n">
-        <v>89789</v>
+        <v>89412</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1987,25 +1982,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5420</v>
+        <v>5442</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2019,20 +2014,19 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Berg Lerbo, 320 m s, Srm</t>
+          <t>Katrineholm, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>584230.342339717</v>
+        <v>584259.9526648163</v>
       </c>
       <c r="R12" t="n">
-        <v>6538308.067341365</v>
+        <v>6538253.535413696</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2056,27 +2050,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>fjolårsex</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2085,39 +2074,28 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106642991</v>
+        <v>99035745</v>
       </c>
       <c r="B13" t="n">
-        <v>96334</v>
+        <v>95525</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2126,61 +2104,52 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>221941</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Berg Lerbo, knärot 350 m sso, Srm</t>
+          <t>Sund Katrineborg, Katrineholm, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>584231.8416649629</v>
+        <v>584329.8318954482</v>
       </c>
       <c r="R13" t="n">
-        <v>6538263.233435098</v>
+        <v>6538129.747484392</v>
       </c>
       <c r="S13" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2202,34 +2171,24 @@
           <t>Lerbo</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>D-Kat-0609</t>
-        </is>
-      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>fördelade på ca 8 dellokaler spridda i området, Området är anmält för avverkning</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2238,40 +2197,25 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Dan Åman</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98156145</v>
+        <v>99035198</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2306,7 +2250,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2316,20 +2260,19 @@
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Lerbo Berg 2, Srm</t>
+          <t>Katrineholm, Srm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>584386.4101965474</v>
+        <v>584259.9526648163</v>
       </c>
       <c r="R14" t="n">
-        <v>6538141.304018256</v>
+        <v>6538253.535413696</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2353,27 +2296,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Två lokaler med 9 meters mellanrum, med 6 respektive ca 85 bladrosetter.</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2382,29 +2320,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98158007</v>
+        <v>99110942</v>
       </c>
       <c r="B15" t="n">
-        <v>96334</v>
+        <v>103265</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2413,30 +2350,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2446,20 +2383,19 @@
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Lerbo Berg 7, Srm</t>
+          <t>Sund Katrineborg, Katrineholm, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>584339.5836724243</v>
+        <v>584359.6743956967</v>
       </c>
       <c r="R15" t="n">
-        <v>6538085.608313028</v>
+        <v>6538111.83605085</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2483,27 +2419,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Fyra lokaler med 11 + 2 + 20 + 2 bladrosetter, 4-9 meter mellan lokalerna.</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2512,29 +2443,28 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98158382</v>
+        <v>106563242</v>
       </c>
       <c r="B16" t="n">
-        <v>96334</v>
+        <v>4717</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2543,53 +2473,54 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Lerbo Berg 8, Srm</t>
+          <t>Berg Lerbo granbarkgnagare 350 m s, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>584322.5081399854</v>
+        <v>584253.8768374666</v>
       </c>
       <c r="R16" t="n">
-        <v>6538086.780837334</v>
+        <v>6538271.452165138</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2613,7 +2544,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2623,12 +2554,17 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>i några granar</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2641,22 +2577,32 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98157785</v>
+        <v>106563795</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2691,30 +2637,38 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Lerbo Berg 6, Srm</t>
+          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>584349.2217702151</v>
+        <v>584321.3056650457</v>
       </c>
       <c r="R17" t="n">
-        <v>6538117.279694059</v>
+        <v>6538094.490504271</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2738,7 +2692,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2748,17 +2702,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Två lokaler med 5-9 meters mellanrum. Med 5 och 11 bladrosetter.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2771,25 +2720,35 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>98156284</v>
+        <v>106564025</v>
       </c>
       <c r="B18" t="n">
-        <v>96334</v>
+        <v>103265</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2798,30 +2757,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2829,22 +2788,30 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Lerbo Berg 4, Srm</t>
+          <t>Berg Lerbo 420 m s, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>584370.8007180344</v>
+        <v>584356.8886847812</v>
       </c>
       <c r="R18" t="n">
-        <v>6538169.842088223</v>
+        <v>6538121.058106194</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2868,7 +2835,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2878,17 +2845,12 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>En lokal på några kvadratmeter med 12 rosetter.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2901,25 +2863,35 @@
       <c r="AG18" t="b">
         <v>0</v>
       </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>98158635</v>
+        <v>106563712</v>
       </c>
       <c r="B19" t="n">
-        <v>96334</v>
+        <v>90676</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2928,53 +2900,52 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Lerbo berg 10, Srm</t>
+          <t>Berg Lerbo motaggsvamp 400 m s, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>584348.230930091</v>
+        <v>584291.3690984178</v>
       </c>
       <c r="R19" t="n">
-        <v>6538068.262973726</v>
+        <v>6538140.249761487</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2998,7 +2969,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3008,7 +2979,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3018,7 +2989,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ca 10 meter NV om parkeringsficka.</t>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3031,25 +3002,35 @@
       <c r="AG19" t="b">
         <v>0</v>
       </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>98156204</v>
+        <v>106563772</v>
       </c>
       <c r="B20" t="n">
-        <v>96334</v>
+        <v>89789</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3058,53 +3039,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>5420</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Lerbo Berg 3, Srm</t>
+          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>584366.5604923052</v>
+        <v>584321.3056650457</v>
       </c>
       <c r="R20" t="n">
-        <v>6538151.182805483</v>
+        <v>6538094.490504271</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3128,7 +3108,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3138,7 +3118,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3148,7 +3128,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Tre lokaler med 9 meter mellan, med 6, 7 och 10 bladrosetter.</t>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3161,25 +3141,35 @@
       <c r="AG20" t="b">
         <v>0</v>
       </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Monika Gustafsson</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Monika Gustafsson, Karl-Joel Sundholm</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99035745</v>
+        <v>106563629</v>
       </c>
       <c r="B21" t="n">
-        <v>95525</v>
+        <v>89789</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3192,48 +3182,40 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221941</v>
+        <v>5420</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sund Katrineborg, Katrineholm, Srm</t>
+          <t>Berg Lerbo, grovticka 425 m s, Srm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>584329.8318954482</v>
+        <v>584354.2419458929</v>
       </c>
       <c r="R21" t="n">
-        <v>6538129.747484392</v>
+        <v>6538171.025772231</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3257,22 +3239,27 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3281,28 +3268,39 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99110942</v>
+        <v>106563215</v>
       </c>
       <c r="B22" t="n">
-        <v>103265</v>
+        <v>90653</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3315,48 +3313,40 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221144</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sund Katrineborg, Katrineholm, Srm</t>
+          <t>Berg Lerbo, blåmossa 360 m s, Srm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>584359.6743956967</v>
+        <v>584292.786769349</v>
       </c>
       <c r="R22" t="n">
-        <v>6538111.83605085</v>
+        <v>6538264.054031932</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3380,22 +3370,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3404,28 +3394,39 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106563795</v>
+        <v>106563508</v>
       </c>
       <c r="B23" t="n">
-        <v>96334</v>
+        <v>90676</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3434,58 +3435,49 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
+          <t>Berg Lerbo, motaggsvamp 370 m s, Srm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>584321.3056650457</v>
+        <v>584277.1142557467</v>
       </c>
       <c r="R23" t="n">
-        <v>6538094.490504271</v>
+        <v>6538271.961699993</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3528,6 +3520,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3565,10 +3562,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>106564025</v>
+        <v>106563756</v>
       </c>
       <c r="B24" t="n">
-        <v>103265</v>
+        <v>90653</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3581,54 +3578,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221144</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Berg Lerbo 420 m s, Srm</t>
+          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>584356.8886847812</v>
+        <v>584321.3056650457</v>
       </c>
       <c r="R24" t="n">
-        <v>6538121.058106194</v>
+        <v>6538094.490504271</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3671,6 +3651,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3708,10 +3693,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>106563712</v>
+        <v>106563513</v>
       </c>
       <c r="B25" t="n">
-        <v>90676</v>
+        <v>93375</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3720,49 +3705,42 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5966</v>
+        <v>2180</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Berg Lerbo motaggsvamp 400 m s, Srm</t>
+          <t>Berg Lerbo, motaggsvamp 370 m s, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>584291.3690984178</v>
+        <v>584277.1142557467</v>
       </c>
       <c r="R25" t="n">
-        <v>6538140.249761487</v>
+        <v>6538271.961699993</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3805,11 +3783,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3847,10 +3820,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>106563772</v>
+        <v>106563983</v>
       </c>
       <c r="B26" t="n">
-        <v>89789</v>
+        <v>90676</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3859,30 +3832,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5420</v>
+        <v>5966</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3894,14 +3867,14 @@
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
+          <t>Berg Lerbo, motaggsvamp 430 m s, Srm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>584321.3056650457</v>
+        <v>584310.3630403695</v>
       </c>
       <c r="R26" t="n">
-        <v>6538094.490504271</v>
+        <v>6538075.168150426</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3986,10 +3959,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>106563629</v>
+        <v>106563118</v>
       </c>
       <c r="B27" t="n">
-        <v>89789</v>
+        <v>93375</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4002,37 +3975,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5420</v>
+        <v>2180</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Berg Lerbo, grovticka 425 m s, Srm</t>
+          <t>Berg Lerbo, blåmossa 360 m s, Srm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>584354.2419458929</v>
+        <v>584292.786769349</v>
       </c>
       <c r="R27" t="n">
-        <v>6538171.025772231</v>
+        <v>6538264.054031932</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4079,7 +4053,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>fjolårsex</t>
+          <t>på flera ställen</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4117,10 +4091,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>106563756</v>
+        <v>106562883</v>
       </c>
       <c r="B28" t="n">
-        <v>90653</v>
+        <v>89789</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4133,37 +4107,45 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>5420</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Berg Lerbo, dropptaggsvamp 415 m s, Srm</t>
+          <t>Berg Lerbo, 320 m s, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>584321.3056650457</v>
+        <v>584230.342339717</v>
       </c>
       <c r="R28" t="n">
-        <v>6538094.490504271</v>
+        <v>6538308.067341365</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4248,10 +4230,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>106563983</v>
+        <v>106627405</v>
       </c>
       <c r="B29" t="n">
-        <v>90676</v>
+        <v>95529</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4260,52 +4242,45 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5966</v>
+        <v>221940</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mellanlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Lycopodium zeilleri</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Rouy) Greuter &amp; Burdet</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Berg Lerbo, motaggsvamp 430 m s, Srm</t>
+          <t>Berg, Lerbo, Biesta, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>584310.3630403695</v>
+        <v>584320.8419535003</v>
       </c>
       <c r="R29" t="n">
-        <v>6538075.168150426</v>
+        <v>6538115.625454261</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4329,7 +4304,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4339,17 +4314,12 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>fjolårsex</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4362,32 +4332,22 @@
       <c r="AG29" t="b">
         <v>0</v>
       </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Bo Karlsson</t>
+          <t>Daniel Franzén</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bo Karlsson, Bo Törnquist, Monika Gustafsson, Göran Ekström</t>
+          <t>Daniel Franzén</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>106627405</v>
+        <v>106627978</v>
       </c>
       <c r="B30" t="n">
         <v>95529</v>
@@ -4420,24 +4380,36 @@
           <t>(Rouy) Greuter &amp; Burdet</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Berg, Lerbo, Biesta, Srm</t>
+          <t>Lerbo Berg, 400 m SSO om, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>584320.8419535003</v>
+        <v>584313.495338978</v>
       </c>
       <c r="R30" t="n">
-        <v>6538115.625454261</v>
+        <v>6538144.34522896</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4477,6 +4449,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Varav två skott tagna som belägg av Bo Karlsson. Tio skott med sporaxskaft med 3-6 sporax per skaft. Sporaxskaften utgår både från centralskottet och från sidogrenar. Smala ändgrenar, cirka 1,5 mm. Dorsalbladen nästan lika stora som lateralbladen i grenspetsarna, ventralbladen något kortare och smalare. Lateralbladens spetsar inböjda, med några få undantag. Jordskott 6-8 cm under yttre markskiktet. Hela beståndet inom ett begränsat område, som i övrigt endast hyser ett fåtal kärlväxter. Skogspartiet är anmält för avverkning.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4489,25 +4466,30 @@
       <c r="AG30" t="b">
         <v>0</v>
       </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Mossig barrblandskog.</t>
+        </is>
+      </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Daniel Franzén</t>
+          <t>Rolf Wahlström</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Daniel Franzén</t>
+          <t>Rolf Wahlström, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>106627978</v>
+        <v>106627216</v>
       </c>
       <c r="B31" t="n">
-        <v>95529</v>
+        <v>96334</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4520,53 +4502,41 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221940</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mellanlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lycopodium zeilleri</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Rouy) Greuter &amp; Burdet</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Lerbo Berg, 400 m SSO om, Srm</t>
+          <t>Berg, Lerbo, Biesta, Srm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>584313.495338978</v>
+        <v>584320.8419535003</v>
       </c>
       <c r="R31" t="n">
-        <v>6538144.34522896</v>
+        <v>6538115.625454261</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4610,7 +4580,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Varav två skott tagna som belägg av Bo Karlsson. Tio skott med sporaxskaft med 3-6 sporax per skaft. Sporaxskaften utgår både från centralskottet och från sidogrenar. Smala ändgrenar, cirka 1,5 mm. Dorsalbladen nästan lika stora som lateralbladen i grenspetsarna, ventralbladen något kortare och smalare. Lateralbladens spetsar inböjda, med några få undantag. Jordskott 6-8 cm under yttre markskiktet. Hela beståndet inom ett begränsat område, som i övrigt endast hyser ett fåtal kärlväxter. Skogspartiet är anmält för avverkning.</t>
+          <t>Knärot fanns på en handfull platser i naturskog om ett par hektar som ska avverkas enligt botanister som var på samma lokal vid observationen. Enligt dem hade Skogsstyrelsen avslagit avverkningsanmälan men efter överklagan hade miljödomstolen gett stöd för avverkning med motivation att det fanns ett reservat inom närheten (ca 1 km) med bla knärot så då var detta område ej bevarandevärd. Om detta stämmer är det ett horribelt arguments som visar att det finns stora brister i underlaget för beslutet. Tråkigt att inte ens de få spillror av naturskogselement som finns kvar (innehållande flertalet rödlistade arter) kan få juridiskt stöd för bevarande. I vilken situation ska då värdefulla skogar kunna bevaras överhuvudtaget?</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4623,30 +4593,25 @@
       <c r="AG31" t="b">
         <v>0</v>
       </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>Mossig barrblandskog.</t>
-        </is>
-      </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Rolf Wahlström</t>
+          <t>Daniel Franzén</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Rolf Wahlström, Bo Karlsson</t>
+          <t>Daniel Franzén</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>106627216</v>
+        <v>106627332</v>
       </c>
       <c r="B32" t="n">
-        <v>96334</v>
+        <v>90676</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4655,31 +4620,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4735,11 +4699,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Knärot fanns på en handfull platser i naturskog om ett par hektar som ska avverkas enligt botanister som var på samma lokal vid observationen. Enligt dem hade Skogsstyrelsen avslagit avverkningsanmälan men efter överklagan hade miljödomstolen gett stöd för avverkning med motivation att det fanns ett reservat inom närheten (ca 1 km) med bla knärot så då var detta område ej bevarandevärd. Om detta stämmer är det ett horribelt arguments som visar att det finns stora brister i underlaget för beslutet. Tråkigt att inte ens de få spillror av naturskogselement som finns kvar (innehållande flertalet rödlistade arter) kan få juridiskt stöd för bevarande. I vilken situation ska då värdefulla skogar kunna bevaras överhuvudtaget?</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4758,17 +4717,17 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Daniel Franzén</t>
+          <t>Daniel Franzén, Rolf Wahlström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>106627332</v>
+        <v>106642991</v>
       </c>
       <c r="B33" t="n">
-        <v>90676</v>
+        <v>96334</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4777,44 +4736,61 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Berg, Lerbo, Biesta, Srm</t>
+          <t>Berg Lerbo, knärot 350 m sso, Srm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>584320.8419535003</v>
+        <v>584231.8416649629</v>
       </c>
       <c r="R33" t="n">
-        <v>6538115.625454261</v>
+        <v>6538263.233435098</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4836,9 +4812,14 @@
           <t>Lerbo</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D-Kat-0609</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4848,12 +4829,17 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>fördelade på ca 8 dellokaler spridda i området, Området är anmält för avverkning</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4866,18 +4852,32 @@
       <c r="AG33" t="b">
         <v>0</v>
       </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Daniel Franzén</t>
+          <t>Bo Karlsson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Daniel Franzén, Rolf Wahlström</t>
-        </is>
-      </c>
-      <c r="AY33" t="inlineStr"/>
+          <t>Bo Karlsson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
